--- a/data/mpox_meta_results.xlsx
+++ b/data/mpox_meta_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Candida/Documents/GIT/mpox-SR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A241D5C-12D2-4D40-ABB0-BD620DC93F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7C19C-9922-D64E-99B3-CDE003A0EB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transm" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="145">
   <si>
     <t>Parameter</t>
   </si>
@@ -1120,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N933"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2409,14 +2409,12 @@
         <v>12.5</v>
       </c>
       <c r="I36" s="4">
-        <v>6.83</v>
+        <v>7.5</v>
       </c>
       <c r="J36" s="4">
-        <v>22.28</v>
-      </c>
-      <c r="K36" s="4">
-        <v>22.9</v>
-      </c>
+        <v>17.3</v>
+      </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="7" t="s">
         <v>20</v>
@@ -2424,64 +2422,58 @@
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="4"/>
+      <c r="A37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="20"/>
       <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12">
-        <v>93</v>
-      </c>
+      <c r="D37" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="12">
-        <v>10.8309</v>
-      </c>
-      <c r="I37" s="12">
-        <v>8.1114999999999995</v>
-      </c>
-      <c r="J37" s="12">
-        <v>14.462</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="9" t="s">
-        <v>24</v>
+      <c r="H37" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4"/>
+      <c r="A38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>24</v>
+      <c r="H38" s="20">
+        <v>1.46</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="N38" s="17"/>
     </row>
@@ -2494,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
@@ -2502,14 +2494,18 @@
         <v>7</v>
       </c>
       <c r="H39" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+        <v>2.44</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="J39" s="20">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N39" s="17"/>
     </row>
@@ -2522,22 +2518,24 @@
         <v>14</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
       <c r="G40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="20">
-        <v>1.46</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.88</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N40" s="17"/>
     </row>
@@ -2550,26 +2548,24 @@
         <v>14</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="20">
-        <v>2.44</v>
-      </c>
+      <c r="H41" s="20"/>
       <c r="I41" s="20">
-        <v>1.35</v>
+        <v>0.7</v>
       </c>
       <c r="J41" s="20">
-        <v>4.9000000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N41" s="17"/>
     </row>
@@ -2582,20 +2578,18 @@
         <v>14</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20">
-        <v>0.66</v>
-      </c>
-      <c r="J42" s="20">
-        <v>0.88</v>
-      </c>
+      <c r="H42" s="20">
+        <v>1.33</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="7" t="s">
@@ -2612,24 +2606,26 @@
         <v>14</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
       <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="20">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="I43" s="20">
-        <v>0.7</v>
+        <v>1.82</v>
       </c>
       <c r="J43" s="20">
-        <v>4.13</v>
+        <v>3.26</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N43" s="17"/>
     </row>
@@ -2642,22 +2638,24 @@
         <v>14</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="20">
-        <v>1.33</v>
-      </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="J44" s="20">
+        <v>1.7</v>
+      </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N44" s="17"/>
     </row>
@@ -2670,21 +2668,19 @@
         <v>14</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="20">
-        <v>2.4300000000000002</v>
-      </c>
+      <c r="H45" s="20"/>
       <c r="I45" s="20">
-        <v>1.82</v>
+        <v>1.2</v>
       </c>
       <c r="J45" s="20">
-        <v>3.26</v>
+        <v>1.6</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -2702,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
@@ -2711,10 +2707,10 @@
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J46" s="20">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -2732,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
@@ -2741,7 +2737,7 @@
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J47" s="20">
         <v>1.6</v>
@@ -2754,24 +2750,24 @@
       <c r="N47" s="17"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>52</v>
+      <c r="A48" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="E48" s="23"/>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J48" s="20">
         <v>2</v>
@@ -2779,37 +2775,39 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N48" s="17"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="20"/>
+      <c r="A49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="23"/>
       <c r="F49" s="9"/>
       <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="20">
+        <v>2.63</v>
+      </c>
       <c r="I49" s="20">
-        <v>1.3</v>
+        <v>0.85</v>
       </c>
       <c r="J49" s="20">
-        <v>1.6</v>
+        <v>5.39</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N49" s="17"/>
     </row>
@@ -2817,24 +2815,26 @@
       <c r="A50" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>63</v>
+      <c r="D50" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="9"/>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="20">
+        <v>3.13</v>
+      </c>
       <c r="I50" s="20">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="J50" s="20">
-        <v>2</v>
+        <v>3.69</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -2852,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="9"/>
@@ -2860,13 +2860,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="20">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="I51" s="20">
-        <v>0.85</v>
+        <v>1.55</v>
       </c>
       <c r="J51" s="20">
-        <v>5.39</v>
+        <v>4.7</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -2884,7 +2884,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="9"/>
@@ -2892,13 +2892,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="20">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="I52" s="20">
-        <v>2.61</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J52" s="20">
-        <v>3.69</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -2916,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="9"/>
@@ -2924,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="H53" s="20">
-        <v>2.91</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I53" s="20">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="J53" s="20">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -2948,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="9"/>
@@ -2956,13 +2956,13 @@
         <v>7</v>
       </c>
       <c r="H54" s="20">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="I54" s="20">
-        <v>2.0699999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="J54" s="20">
-        <v>4.4400000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="9"/>
@@ -2988,18 +2988,18 @@
         <v>7</v>
       </c>
       <c r="H55" s="20">
-        <v>2.2799999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="I55" s="20">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="J55" s="20">
-        <v>3.75</v>
+        <v>1.33</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N55" s="17"/>
     </row>
@@ -3012,26 +3012,24 @@
         <v>14</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="9"/>
       <c r="G56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="20">
-        <v>2.84</v>
-      </c>
+      <c r="H56" s="20"/>
       <c r="I56" s="20">
-        <v>2.33</v>
+        <v>0.8</v>
       </c>
       <c r="J56" s="20">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N56" s="17"/>
     </row>
@@ -3044,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="9"/>
@@ -3052,18 +3050,18 @@
         <v>7</v>
       </c>
       <c r="H57" s="20">
-        <v>1.29</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I57" s="20">
-        <v>1.26</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J57" s="20">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N57" s="17"/>
     </row>
@@ -3076,19 +3074,21 @@
         <v>14</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="9"/>
       <c r="G58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="20">
+        <v>1.2</v>
+      </c>
       <c r="I58" s="20">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J58" s="20">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -3106,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="9"/>
@@ -3114,13 +3114,13 @@
         <v>7</v>
       </c>
       <c r="H59" s="20">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="I59" s="20">
-        <v>1.1499999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="J59" s="20">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -3138,7 +3138,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="9"/>
@@ -3146,13 +3146,13 @@
         <v>7</v>
       </c>
       <c r="H60" s="20">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="I60" s="20">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="J60" s="20">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -3170,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="9"/>
@@ -3178,18 +3178,18 @@
         <v>7</v>
       </c>
       <c r="H61" s="20">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="I61" s="20">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="J61" s="20">
-        <v>1.35</v>
+        <v>2.48</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N61" s="17"/>
     </row>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="9"/>
@@ -3210,13 +3210,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="20">
-        <v>1.33</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I62" s="20">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="J62" s="20">
-        <v>1.33</v>
+        <v>3.05</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3234,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="9"/>
@@ -3242,18 +3242,18 @@
         <v>7</v>
       </c>
       <c r="H63" s="20">
-        <v>1.92</v>
+        <v>2.91</v>
       </c>
       <c r="I63" s="20">
-        <v>1.45</v>
+        <v>2.33</v>
       </c>
       <c r="J63" s="20">
-        <v>2.48</v>
+        <v>3.52</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N63" s="17"/>
     </row>
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="9"/>
@@ -3274,13 +3274,13 @@
         <v>7</v>
       </c>
       <c r="H64" s="20">
-        <v>2.3199999999999998</v>
+        <v>1.84</v>
       </c>
       <c r="I64" s="20">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="J64" s="20">
-        <v>3.05</v>
+        <v>2.31</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -3298,7 +3298,7 @@
         <v>14</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="9"/>
@@ -3306,13 +3306,13 @@
         <v>7</v>
       </c>
       <c r="H65" s="20">
-        <v>2.91</v>
+        <v>3.16</v>
       </c>
       <c r="I65" s="20">
-        <v>2.33</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J65" s="20">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -3330,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="9"/>
@@ -3338,13 +3338,13 @@
         <v>7</v>
       </c>
       <c r="H66" s="20">
-        <v>1.84</v>
+        <v>2.97</v>
       </c>
       <c r="I66" s="20">
-        <v>1.55</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J66" s="20">
-        <v>2.31</v>
+        <v>4.32</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -3362,7 +3362,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="9"/>
@@ -3370,13 +3370,13 @@
         <v>7</v>
       </c>
       <c r="H67" s="20">
-        <v>3.16</v>
+        <v>1.18</v>
       </c>
       <c r="I67" s="20">
-        <v>2.5499999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="J67" s="20">
-        <v>3.64</v>
+        <v>1.33</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -3394,7 +3394,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="9"/>
@@ -3402,13 +3402,13 @@
         <v>7</v>
       </c>
       <c r="H68" s="20">
-        <v>2.97</v>
+        <v>3.74</v>
       </c>
       <c r="I68" s="20">
-        <v>2.0099999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="J68" s="20">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -3426,7 +3426,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="9"/>
@@ -3434,18 +3434,18 @@
         <v>7</v>
       </c>
       <c r="H69" s="20">
-        <v>1.18</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I69" s="20">
-        <v>0.98</v>
+        <v>1.98</v>
       </c>
       <c r="J69" s="20">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N69" s="17"/>
     </row>
@@ -3458,7 +3458,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="9"/>
@@ -3466,18 +3466,18 @@
         <v>7</v>
       </c>
       <c r="H70" s="20">
-        <v>3.74</v>
+        <v>1.7</v>
       </c>
       <c r="I70" s="20">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="J70" s="20">
-        <v>4.49</v>
+        <v>1.72</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N70" s="17"/>
     </row>
@@ -3490,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="9"/>
@@ -3498,13 +3498,13 @@
         <v>7</v>
       </c>
       <c r="H71" s="20">
-        <v>2.0699999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="I71" s="20">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="J71" s="20">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -3522,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="9"/>
@@ -3530,10 +3530,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="20">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="I72" s="20">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="J72" s="20">
         <v>1.72</v>
@@ -3546,68 +3546,34 @@
       <c r="N72" s="17"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="20">
-        <v>1.65</v>
-      </c>
-      <c r="I73" s="20">
-        <v>1.61</v>
-      </c>
-      <c r="J73" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N73" s="17"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="20">
-        <v>1.64</v>
-      </c>
-      <c r="I74" s="20">
-        <v>1.57</v>
-      </c>
-      <c r="J74" s="20">
-        <v>1.72</v>
-      </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N74" s="17"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
@@ -6745,34 +6711,12 @@
       <c r="M283" s="27"/>
     </row>
     <row r="284" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="24"/>
-      <c r="B284" s="25"/>
-      <c r="C284" s="25"/>
-      <c r="D284" s="25"/>
-      <c r="E284" s="26"/>
-      <c r="F284" s="25"/>
-      <c r="G284" s="25"/>
-      <c r="H284" s="25"/>
-      <c r="I284" s="25"/>
-      <c r="J284" s="25"/>
-      <c r="K284" s="25"/>
-      <c r="L284" s="25"/>
-      <c r="M284" s="27"/>
+      <c r="A284" s="28"/>
+      <c r="E284" s="29"/>
     </row>
     <row r="285" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="24"/>
-      <c r="B285" s="25"/>
-      <c r="C285" s="25"/>
-      <c r="D285" s="25"/>
-      <c r="E285" s="26"/>
-      <c r="F285" s="25"/>
-      <c r="G285" s="25"/>
-      <c r="H285" s="25"/>
-      <c r="I285" s="25"/>
-      <c r="J285" s="25"/>
-      <c r="K285" s="25"/>
-      <c r="L285" s="25"/>
-      <c r="M285" s="27"/>
+      <c r="A285" s="28"/>
+      <c r="E285" s="29"/>
     </row>
     <row r="286" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="28"/>
@@ -9357,14 +9301,6 @@
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="28"/>
       <c r="E931" s="29"/>
-    </row>
-    <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="28"/>
-      <c r="E932" s="29"/>
-    </row>
-    <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="28"/>
-      <c r="E933" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
